--- a/1. Statistics/Udacity HW 1.xlsx
+++ b/1. Statistics/Udacity HW 1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pure/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pure/Documents/Personal_Development/Udacity/Data_Analyst/HomeWork/1. Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27540" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27540" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Congruent</t>
   </si>
@@ -35,19 +35,7 @@
     <t>Incongruent</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>C-I</t>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -56,7 +44,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -91,7 +79,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,15 +357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,19 +373,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12.079000000000001</v>
       </c>
@@ -405,46 +384,17 @@
         <v>19.277999999999999</v>
       </c>
       <c r="C2">
-        <f>A2-B2</f>
-        <v>-7.1989999999999981</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <f>AVERAGE(A2:A25)</f>
-        <v>14.051125000000001</v>
-      </c>
-      <c r="F2" s="2">
-        <f>AVERAGE(B2:B25)</f>
-        <v>22.015916666666669</v>
-      </c>
-      <c r="G2" s="3">
+        <f>B2-A2</f>
+        <v>7.1989999999999981</v>
+      </c>
+      <c r="E2">
         <f>AVERAGE(C2:C25)</f>
-        <v>-7.964791666666664</v>
-      </c>
-      <c r="H2">
-        <f>A2-$E$2</f>
-        <v>-1.9721250000000001</v>
-      </c>
-      <c r="I2">
-        <f>H2^2</f>
-        <v>3.8892770156250007</v>
-      </c>
-      <c r="J2">
-        <f>SUM(I2:I25)</f>
-        <v>291.38766862500006</v>
-      </c>
-      <c r="K2">
-        <f>J2/23</f>
-        <v>12.669029070652176</v>
-      </c>
-      <c r="L2">
-        <f>SQRT(K2)</f>
-        <v>3.5593579576451955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.964791666666664</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>16.791</v>
       </c>
@@ -452,34 +402,17 @@
         <v>18.741</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C25" si="0">A3-B3</f>
-        <v>-1.9499999999999993</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
+        <f t="shared" ref="C3:C25" si="0">B3-A3</f>
+        <v>1.9499999999999993</v>
       </c>
       <c r="E3" s="2">
-        <f>_xlfn.STDEV.S(A2:A25)</f>
-        <v>3.559357957645187</v>
-      </c>
-      <c r="F3" s="2">
-        <f>_xlfn.STDEV.S(B2:B25)</f>
-        <v>4.7970571224691367</v>
-      </c>
-      <c r="G3" s="3">
         <f>_xlfn.STDEV.S(C2:C25)</f>
         <v>4.8648269103590565</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H25" si="1">A3-$E$2</f>
-        <v>2.7398749999999996</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I25" si="2">H3^2</f>
-        <v>7.5069150156249975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9.5640000000000001</v>
       </c>
@@ -488,33 +421,13 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>-11.649999999999999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2">
-        <f>MEDIAN(A2:A25)</f>
-        <v>14.3565</v>
-      </c>
-      <c r="F4" s="1">
-        <f>MEDIAN(B2:B25)</f>
-        <v>21.017499999999998</v>
-      </c>
-      <c r="G4" s="3">
-        <f>MEDIAN(C2:C25)</f>
-        <v>-7.6664999999999992</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>-4.4871250000000007</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
-        <v>20.134290765625007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.649999999999999</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8.6300000000000008</v>
       </c>
@@ -523,29 +436,10 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>-7.0569999999999986</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="e">
-        <f>MODE(A2:A25)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
-        <f>MODE(B2:B25)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>-5.421125</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
-        <v>29.388596265625001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.0569999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>14.669</v>
       </c>
@@ -554,18 +448,10 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>-8.1340000000000003</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0.61787499999999973</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
-        <v>0.38176951562499967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.1340000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12.238</v>
       </c>
@@ -574,18 +460,10 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>-8.64</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>-1.8131250000000012</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>3.2874222656250045</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14.692</v>
       </c>
@@ -594,18 +472,10 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>-9.879999999999999</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0.64087499999999942</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>0.41072076562499926</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.879999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8.9870000000000001</v>
       </c>
@@ -614,18 +484,10 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-8.4069999999999983</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>-5.0641250000000007</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>25.645362015625008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.4069999999999983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9.4009999999999998</v>
       </c>
@@ -634,18 +496,10 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>-11.361000000000001</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>-4.650125000000001</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>21.623662515625011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.361000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14.48</v>
       </c>
@@ -654,18 +508,10 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-11.802</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>0.42887499999999967</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>0.18393376562499972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11.802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>22.327999999999999</v>
       </c>
@@ -674,18 +520,10 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>-2.1960000000000015</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>8.2768749999999986</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>68.506659765624974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2.1960000000000015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15.298</v>
       </c>
@@ -694,18 +532,10 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-3.3459999999999983</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>1.2468749999999993</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>1.5546972656249982</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.3459999999999983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15.073</v>
       </c>
@@ -714,18 +544,10 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-2.4370000000000012</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>1.0218749999999996</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>1.0442285156249993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2.4370000000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16.928999999999998</v>
       </c>
@@ -734,18 +556,10 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-3.4009999999999998</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>2.8778749999999977</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>8.2821645156249861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.4009999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>18.2</v>
       </c>
@@ -754,18 +568,10 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-17.055000000000003</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>4.1488749999999985</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>17.213163765624987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.055000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12.13</v>
       </c>
@@ -774,18 +580,10 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-10.028</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>-1.921125</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>3.6907212656249997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10.028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18.495000000000001</v>
       </c>
@@ -794,18 +592,10 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>-6.6439999999999984</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>4.4438750000000002</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>19.748025015625004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.6439999999999984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10.638999999999999</v>
       </c>
@@ -814,18 +604,10 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>-9.7899999999999991</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>-3.4121250000000014</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>11.642597015625009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11.343999999999999</v>
       </c>
@@ -834,18 +616,10 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-6.0810000000000013</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>-2.7071250000000013</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>7.3285257656250069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.0810000000000013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12.369</v>
       </c>
@@ -854,18 +628,10 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-21.918999999999997</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>-1.682125000000001</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
-        <v>2.8295445156250034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.918999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12.944000000000001</v>
       </c>
@@ -874,18 +640,10 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>-10.949999999999998</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>-1.1071249999999999</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>1.2257257656249998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10.949999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14.233000000000001</v>
       </c>
@@ -894,18 +652,10 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>-3.7270000000000003</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0.18187499999999979</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>3.3078515624999923E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.7270000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19.71</v>
       </c>
@@ -914,18 +664,10 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>-2.347999999999999</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>5.6588750000000001</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>32.022866265624998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.347999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16.004000000000001</v>
       </c>
@@ -934,15 +676,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>-5.1529999999999987</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>1.9528750000000006</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>3.8137207656250021</v>
+        <v>5.1529999999999987</v>
       </c>
     </row>
   </sheetData>
